--- a/tests/test_files/Checklists nominal.xlsx
+++ b/tests/test_files/Checklists nominal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D8D1086F-B55C-4B68-A092-AC8318C24B51}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9B5359DA-07E0-4D35-B6B5-365DC12CA9A9}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -82,27 +82,15 @@
     <t>Initial Pre-Flight</t>
   </si>
   <si>
-    <t>25.2</t>
-  </si>
-  <si>
     <t>THIS IS A TEST</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
     <t>Post-Flight</t>
   </si>
   <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
     <t>Disconnected;</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
   </si>
   <si>
     <t>TEST 2</t>
-  </si>
-  <si>
-    <t>24.2</t>
   </si>
   <si>
     <t>TEST 3</t>
@@ -138,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -172,8 +157,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,10 +207,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -535,13 +520,12 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -594,18 +578,18 @@
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>43759.647037037001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43759.6478935185</v>
+      <c r="B2" s="3">
+        <v>43759.647974537002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43759.648449074099</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -614,14 +598,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -631,22 +611,22 @@
       <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
+      <c r="P2" s="2">
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>43759.647974537002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43759.648449074099</v>
+      <c r="B3" s="3">
+        <v>43759.648472222201</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43759.648877314801</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -655,35 +635,43 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>43759.648472222201</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43759.648877314801</v>
+      <c r="B4" s="3">
+        <v>43488.647037037037</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43488.647893518515</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -692,42 +680,38 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>43772.654942129629</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>43802.65520833333</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -737,12 +721,12 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
+      <c r="I5" s="2">
+        <v>25.2</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -750,23 +734,23 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>43772.655219907407</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43802.655416666668</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -787,23 +771,23 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>43772.655428240738</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>43802.655821759261</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -813,45 +797,46 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>24.2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3358440ca6a3098c284a1e565a0f249">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb47b5338ca8491327e26f4cc584ed1f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f0338854bc56f50ac4daf9a6be0e17">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88fb165263e20f462f96975fe477339d" ns2:_="" ns3:_="">
     <xsd:import namespace="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
     <xsd:import namespace="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
     <xsd:element name="properties">
@@ -869,6 +854,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -912,6 +898,13 @@
     <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1060,13 +1053,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C35B8B-E1C1-495D-942D-29CB8C650F76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5ED2BE2-1522-425E-8BDE-E89F26793E49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47033E4F-3089-4ABC-B75C-1B4DC73F477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47033E4F-3089-4ABC-B75C-1B4DC73F477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B860A56-547A-49BF-8F8E-998B1DCAF542}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B860A56-547A-49BF-8F8E-998B1DCAF542}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>